--- a/分布式服务器设计.xlsx
+++ b/分布式服务器设计.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +101,10 @@
   </si>
   <si>
     <t>主要是测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录服务器、ip，port给客户端</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -201,19 +204,13 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -222,10 +219,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -532,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -546,10 +549,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="8"/>
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
@@ -564,215 +567,286 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="10">
         <v>43502</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="3"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="10">
         <v>43504</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="3"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="10">
         <v>43504</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="5"/>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="5"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="7">
         <v>43504</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="5"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="2">
         <v>5</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="7">
         <v>43508</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="5"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="5" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="5"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="2">
         <v>7</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="5"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="5"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="2">
         <v>8</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="5"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="5"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="2">
         <v>9</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="5"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="5"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>10</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="61">
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
@@ -785,49 +859,6 @@
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
